--- a/data/vocabulary.xlsx
+++ b/data/vocabulary.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christie/github/buddhavacana/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E089454-E850-0945-9D6A-0D854CFC7D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2019C3E-A95E-9946-B734-9AFF54299705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="21600" activeTab="2" xr2:uid="{29D2D6BB-F855-BC40-BB49-97E9609A8E50}"/>
   </bookViews>
   <sheets>
     <sheet name="Verbs" sheetId="1" r:id="rId1"/>
     <sheet name="Nouns" sheetId="2" r:id="rId2"/>
-    <sheet name="Pronouns" sheetId="5" r:id="rId3"/>
-    <sheet name="Adjectives" sheetId="4" r:id="rId4"/>
-    <sheet name="Indeclinables" sheetId="3" r:id="rId5"/>
+    <sheet name="Irregulars" sheetId="6" r:id="rId3"/>
+    <sheet name="Pronouns" sheetId="5" r:id="rId4"/>
+    <sheet name="Adjectives" sheetId="4" r:id="rId5"/>
+    <sheet name="Indeclinables" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2293" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2525" uniqueCount="1144">
   <si>
     <t>upasaṃkamati</t>
   </si>
@@ -3294,12 +3295,6 @@
     <t>kāraka</t>
   </si>
   <si>
-    <t>1. paccattavacana</t>
-  </si>
-  <si>
-    <t>2. upayogavacana</t>
-  </si>
-  <si>
     <t>ahaṃ</t>
   </si>
   <si>
@@ -3336,18 +3331,9 @@
     <t>tā</t>
   </si>
   <si>
-    <t>he</t>
-  </si>
-  <si>
-    <t>she</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
-    <t>they</t>
-  </si>
-  <si>
     <t>you(s)</t>
   </si>
   <si>
@@ -3357,31 +3343,136 @@
     <t>you (thou)</t>
   </si>
   <si>
-    <t>him/her</t>
-  </si>
-  <si>
     <t>you (thee)</t>
   </si>
   <si>
     <t>me</t>
   </si>
   <si>
-    <t>them</t>
-  </si>
-  <si>
-    <t>niyamita</t>
-  </si>
-  <si>
-    <t>rūpa</t>
-  </si>
-  <si>
     <t>tad</t>
   </si>
   <si>
-    <t>the, this</t>
-  </si>
-  <si>
     <t>tāni</t>
+  </si>
+  <si>
+    <t>the, that, it (anaphoric)</t>
+  </si>
+  <si>
+    <t>etaṃ</t>
+  </si>
+  <si>
+    <t>this, it (deictic)</t>
+  </si>
+  <si>
+    <t>etad</t>
+  </si>
+  <si>
+    <t>eso</t>
+  </si>
+  <si>
+    <t>he, this, it (deictic)</t>
+  </si>
+  <si>
+    <t>esa</t>
+  </si>
+  <si>
+    <t>she, this, it (deictic)</t>
+  </si>
+  <si>
+    <t>esā</t>
+  </si>
+  <si>
+    <t>pumitthiliṅga</t>
+  </si>
+  <si>
+    <t>him, her, the, that, it (anaphoric)</t>
+  </si>
+  <si>
+    <t>they, those  (anaphoric)</t>
+  </si>
+  <si>
+    <t>them, those  (anaphoric)</t>
+  </si>
+  <si>
+    <t>etāni</t>
+  </si>
+  <si>
+    <t>ete</t>
+  </si>
+  <si>
+    <t>etā</t>
+  </si>
+  <si>
+    <t>they, this, it (deictic)</t>
+  </si>
+  <si>
+    <t>paccattavacana</t>
+  </si>
+  <si>
+    <t>upayogavacana</t>
+  </si>
+  <si>
+    <t>he, that, it (anaphoric)</t>
+  </si>
+  <si>
+    <t>she, that, it (anaphoric)</t>
+  </si>
+  <si>
+    <t>ayaṃ</t>
+  </si>
+  <si>
+    <t>idaṃ</t>
+  </si>
+  <si>
+    <t>he, she, this, it (deictic)</t>
+  </si>
+  <si>
+    <t>imāni</t>
+  </si>
+  <si>
+    <t>they, these (deictic)</t>
+  </si>
+  <si>
+    <t>ime</t>
+  </si>
+  <si>
+    <t>imā</t>
+  </si>
+  <si>
+    <t>jāti</t>
+  </si>
+  <si>
+    <t>puggalanāma</t>
+  </si>
+  <si>
+    <t>nidassananāma</t>
+  </si>
+  <si>
+    <t>bhagavā</t>
+  </si>
+  <si>
+    <t>bhagavanto</t>
+  </si>
+  <si>
+    <t>bhagavantaṃ</t>
+  </si>
+  <si>
+    <t>brahmā</t>
+  </si>
+  <si>
+    <t>brahmāno</t>
+  </si>
+  <si>
+    <t>brahmānaṃ</t>
+  </si>
+  <si>
+    <t>rāja</t>
+  </si>
+  <si>
+    <t>rājanto</t>
+  </si>
+  <si>
+    <t>rājānaṃ</t>
   </si>
 </sst>
 </file>
@@ -3766,7 +3857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EEF752-1E38-D246-B3C3-5032ABA633EF}">
   <dimension ref="A1:K188"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A49" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9741,7 +9832,7 @@
   <dimension ref="A1:F133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:C39"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12416,21 +12507,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2215B98-3D7B-2C49-9925-33FA782F49C9}">
-  <dimension ref="A1:K24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61F19DE-F0D9-304B-B2F1-DE9E619D03DB}">
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>502</v>
       </c>
@@ -12441,833 +12531,331 @@
         <v>500</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1075</v>
+        <v>1132</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1110</v>
+        <v>1076</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1076</v>
+        <v>1083</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1077</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1075</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>499</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>1109</v>
+        <v>287</v>
       </c>
       <c r="E2" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
       <c r="F2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" t="s">
         <v>1081</v>
       </c>
-      <c r="G2" t="s">
-        <v>1078</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1084</v>
-      </c>
-      <c r="I2" t="s">
-        <v>511</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K2" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>499</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>499</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E6" t="s">
         <v>1081</v>
       </c>
-      <c r="G3" t="s">
-        <v>1078</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1084</v>
-      </c>
-      <c r="I3" t="s">
-        <v>511</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1111</v>
-      </c>
-      <c r="K3" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>499</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="F6" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>499</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>499</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>287</v>
+      </c>
+      <c r="E8" t="s">
         <v>1081</v>
       </c>
-      <c r="G4" t="s">
-        <v>1078</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1084</v>
-      </c>
-      <c r="I4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1092</v>
-      </c>
-      <c r="K4" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>499</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="F8" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>287</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>499</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>287</v>
+      </c>
+      <c r="E10" t="s">
         <v>1081</v>
       </c>
-      <c r="G5" t="s">
-        <v>1078</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1084</v>
-      </c>
-      <c r="I5" t="s">
-        <v>94</v>
-      </c>
-      <c r="J5" t="s">
-        <v>1094</v>
-      </c>
-      <c r="K5" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>499</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="F10" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H10" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>499</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>287</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H11" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>499</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>287</v>
+      </c>
+      <c r="E12" t="s">
         <v>1081</v>
       </c>
-      <c r="G6" t="s">
-        <v>1078</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1084</v>
-      </c>
-      <c r="I6" t="s">
-        <v>690</v>
-      </c>
-      <c r="J6" t="s">
-        <v>1095</v>
-      </c>
-      <c r="K6" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>499</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1081</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1079</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1084</v>
-      </c>
-      <c r="I7" t="s">
-        <v>1091</v>
-      </c>
-      <c r="J7" t="s">
-        <v>1090</v>
-      </c>
-      <c r="K7" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>499</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1081</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1080</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1084</v>
-      </c>
-      <c r="I8" t="s">
-        <v>1091</v>
-      </c>
-      <c r="J8" t="s">
-        <v>1086</v>
-      </c>
-      <c r="K8" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>499</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="F12" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H12" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>499</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>287</v>
+      </c>
+      <c r="E13" t="s">
         <v>1082</v>
       </c>
-      <c r="G9" t="s">
-        <v>1078</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1084</v>
-      </c>
-      <c r="I9" t="s">
-        <v>511</v>
-      </c>
-      <c r="J9" t="s">
-        <v>1113</v>
-      </c>
-      <c r="K9" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>499</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1082</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1078</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1084</v>
-      </c>
-      <c r="I10" t="s">
-        <v>94</v>
-      </c>
-      <c r="J10" t="s">
-        <v>1096</v>
-      </c>
-      <c r="K10" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>499</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1082</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1078</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1084</v>
-      </c>
-      <c r="I11" t="s">
-        <v>690</v>
-      </c>
-      <c r="J11" t="s">
-        <v>1097</v>
-      </c>
-      <c r="K11" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>499</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1082</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1079</v>
-      </c>
-      <c r="H12" t="s">
-        <v>1084</v>
-      </c>
-      <c r="I12" t="s">
-        <v>1091</v>
-      </c>
-      <c r="J12" t="s">
-        <v>1093</v>
-      </c>
-      <c r="K12" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>499</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1089</v>
-      </c>
       <c r="F13" t="s">
-        <v>1082</v>
+        <v>1122</v>
       </c>
       <c r="G13" t="s">
-        <v>1080</v>
+        <v>1142</v>
       </c>
       <c r="H13" t="s">
-        <v>1084</v>
-      </c>
-      <c r="I13" t="s">
-        <v>1091</v>
-      </c>
-      <c r="J13" t="s">
-        <v>1087</v>
-      </c>
-      <c r="K13" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>499</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1081</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1078</v>
-      </c>
-      <c r="H14" t="s">
-        <v>1085</v>
-      </c>
-      <c r="I14" t="s">
-        <v>511</v>
-      </c>
-      <c r="J14" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K14" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>499</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1081</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1078</v>
-      </c>
-      <c r="H15" t="s">
-        <v>1085</v>
-      </c>
-      <c r="I15" t="s">
-        <v>511</v>
-      </c>
-      <c r="J15" t="s">
-        <v>1111</v>
-      </c>
-      <c r="K15" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>499</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1081</v>
-      </c>
-      <c r="G16" t="s">
-        <v>1078</v>
-      </c>
-      <c r="H16" t="s">
-        <v>1085</v>
-      </c>
-      <c r="I16" t="s">
-        <v>1091</v>
-      </c>
-      <c r="J16" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K16" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>499</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1081</v>
-      </c>
-      <c r="G17" t="s">
-        <v>1079</v>
-      </c>
-      <c r="H17" t="s">
-        <v>1085</v>
-      </c>
-      <c r="I17" t="s">
-        <v>1091</v>
-      </c>
-      <c r="J17" t="s">
-        <v>1090</v>
-      </c>
-      <c r="K17" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>499</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1081</v>
-      </c>
-      <c r="G18" t="s">
-        <v>1079</v>
-      </c>
-      <c r="H18" t="s">
-        <v>1085</v>
-      </c>
-      <c r="I18" t="s">
-        <v>1091</v>
-      </c>
-      <c r="J18" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K18" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>499</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1081</v>
-      </c>
-      <c r="G19" t="s">
-        <v>1080</v>
-      </c>
-      <c r="H19" t="s">
-        <v>1085</v>
-      </c>
-      <c r="I19" t="s">
-        <v>1091</v>
-      </c>
-      <c r="J19" t="s">
-        <v>1088</v>
-      </c>
-      <c r="K19" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>499</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1082</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1078</v>
-      </c>
-      <c r="H20" t="s">
-        <v>1085</v>
-      </c>
-      <c r="I20" t="s">
-        <v>511</v>
-      </c>
-      <c r="J20" t="s">
-        <v>1113</v>
-      </c>
-      <c r="K20" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>499</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1082</v>
-      </c>
-      <c r="G21" t="s">
-        <v>1078</v>
-      </c>
-      <c r="H21" t="s">
-        <v>1085</v>
-      </c>
-      <c r="I21" t="s">
-        <v>94</v>
-      </c>
-      <c r="J21" t="s">
-        <v>1096</v>
-      </c>
-      <c r="K21" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>499</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1082</v>
-      </c>
-      <c r="G22" t="s">
-        <v>1078</v>
-      </c>
-      <c r="H22" t="s">
-        <v>1085</v>
-      </c>
-      <c r="I22" t="s">
-        <v>690</v>
-      </c>
-      <c r="J22" t="s">
-        <v>1097</v>
-      </c>
-      <c r="K22" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>499</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1082</v>
-      </c>
-      <c r="G23" t="s">
-        <v>1079</v>
-      </c>
-      <c r="H23" t="s">
-        <v>1085</v>
-      </c>
-      <c r="I23" t="s">
-        <v>1091</v>
-      </c>
-      <c r="J23" t="s">
-        <v>1093</v>
-      </c>
-      <c r="K23" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>499</v>
-      </c>
-      <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1082</v>
-      </c>
-      <c r="G24" t="s">
-        <v>1080</v>
-      </c>
-      <c r="H24" t="s">
-        <v>1085</v>
-      </c>
-      <c r="I24" t="s">
-        <v>1091</v>
-      </c>
-      <c r="J24" t="s">
-        <v>1089</v>
-      </c>
-      <c r="K24" t="s">
-        <v>1103</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -13276,6 +12864,1500 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2215B98-3D7B-2C49-9925-33FA782F49C9}">
+  <dimension ref="A1:J46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1"/>
+    <col min="10" max="10" width="28.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H2" t="s">
+        <v>511</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H3" t="s">
+        <v>511</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1092</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>499</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H6" t="s">
+        <v>690</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1093</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>499</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1088</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>499</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H9" t="s">
+        <v>511</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>499</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>499</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H11" t="s">
+        <v>690</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>499</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1091</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>499</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>499</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1089</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>499</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H15" t="s">
+        <v>511</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1102</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>499</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1088</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>499</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>499</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1086</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>499</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H19" t="s">
+        <v>511</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1103</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>499</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1094</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>499</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H21" t="s">
+        <v>690</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>499</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1091</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>499</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1087</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>499</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H24" t="s">
+        <v>511</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1105</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>499</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H25" t="s">
+        <v>511</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1107</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>499</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H26" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1108</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>499</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H27" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1110</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>499</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H28" t="s">
+        <v>690</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1112</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>499</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H29" t="s">
+        <v>511</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>499</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H30" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>499</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H31" t="s">
+        <v>690</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>499</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1089</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1105</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>499</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H33" t="s">
+        <v>511</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1107</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>499</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H34" t="s">
+        <v>511</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>499</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H35" t="s">
+        <v>94</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>499</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H36" t="s">
+        <v>690</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>499</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H37" t="s">
+        <v>511</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>499</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>27</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1125</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>499</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>27</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H39" t="s">
+        <v>511</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1128</v>
+      </c>
+      <c r="J39" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>499</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>27</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H40" t="s">
+        <v>94</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1130</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>499</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>27</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H41" t="s">
+        <v>690</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1131</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>499</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>27</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H42" t="s">
+        <v>511</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J42" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>499</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>27</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1125</v>
+      </c>
+      <c r="J43" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>499</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>27</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H44" t="s">
+        <v>511</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1128</v>
+      </c>
+      <c r="J44" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>499</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>27</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H45" t="s">
+        <v>94</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1130</v>
+      </c>
+      <c r="J45" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>499</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>27</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H46" t="s">
+        <v>690</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1131</v>
+      </c>
+      <c r="J46" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69360A60-59EE-0441-BA88-89364E1282A8}">
   <dimension ref="A1:E28"/>
   <sheetViews>
@@ -13769,7 +14851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942D2CA4-63A6-ED48-9FE6-C697C2E3C617}">
   <dimension ref="A1:E52"/>
   <sheetViews>

--- a/data/vocabulary.xlsx
+++ b/data/vocabulary.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christie/github/buddhavacana/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2019C3E-A95E-9946-B734-9AFF54299705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9693484D-3197-DA49-9C3F-27A92EAB509C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="21600" activeTab="2" xr2:uid="{29D2D6BB-F855-BC40-BB49-97E9609A8E50}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28080" windowHeight="19560" activeTab="4" xr2:uid="{29D2D6BB-F855-BC40-BB49-97E9609A8E50}"/>
   </bookViews>
   <sheets>
     <sheet name="Verbs" sheetId="1" r:id="rId1"/>
-    <sheet name="Nouns" sheetId="2" r:id="rId2"/>
-    <sheet name="Irregulars" sheetId="6" r:id="rId3"/>
-    <sheet name="Pronouns" sheetId="5" r:id="rId4"/>
-    <sheet name="Adjectives" sheetId="4" r:id="rId5"/>
-    <sheet name="Indeclinables" sheetId="3" r:id="rId6"/>
+    <sheet name="Irregular Verbs" sheetId="7" r:id="rId2"/>
+    <sheet name="Nouns" sheetId="2" r:id="rId3"/>
+    <sheet name="Irregular Nouns" sheetId="6" r:id="rId4"/>
+    <sheet name="Pronouns" sheetId="5" r:id="rId5"/>
+    <sheet name="Adjectives" sheetId="4" r:id="rId6"/>
+    <sheet name="Indeclinables" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2525" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3578" uniqueCount="1300">
   <si>
     <t>upasaṃkamati</t>
   </si>
@@ -3277,21 +3278,6 @@
     <t>purisa</t>
   </si>
   <si>
-    <t>paṭhamapurisa</t>
-  </si>
-  <si>
-    <t>majjhimapurisa</t>
-  </si>
-  <si>
-    <t>uttamapurisa</t>
-  </si>
-  <si>
-    <t>ekavacana</t>
-  </si>
-  <si>
-    <t>bahuvacana</t>
-  </si>
-  <si>
     <t>kāraka</t>
   </si>
   <si>
@@ -3406,12 +3392,6 @@
     <t>they, this, it (deictic)</t>
   </si>
   <si>
-    <t>paccattavacana</t>
-  </si>
-  <si>
-    <t>upayogavacana</t>
-  </si>
-  <si>
     <t>he, that, it (anaphoric)</t>
   </si>
   <si>
@@ -3439,9 +3419,6 @@
     <t>imā</t>
   </si>
   <si>
-    <t>jāti</t>
-  </si>
-  <si>
     <t>puggalanāma</t>
   </si>
   <si>
@@ -3473,13 +3450,505 @@
   </si>
   <si>
     <t>rājānaṃ</t>
+  </si>
+  <si>
+    <t>stem</t>
+  </si>
+  <si>
+    <t>ta(d)</t>
+  </si>
+  <si>
+    <t>ma(d),mam</t>
+  </si>
+  <si>
+    <t>eta(d)</t>
+  </si>
+  <si>
+    <t>ima</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>eka</t>
+  </si>
+  <si>
+    <t>bahu</t>
+  </si>
+  <si>
+    <t>uttama</t>
+  </si>
+  <si>
+    <t>majjhima</t>
+  </si>
+  <si>
+    <t>paṭhama</t>
+  </si>
+  <si>
+    <t>he, that, it</t>
+  </si>
+  <si>
+    <t>they, those</t>
+  </si>
+  <si>
+    <t>them, those</t>
+  </si>
+  <si>
+    <t>ahesuṃ</t>
+  </si>
+  <si>
+    <t>ahuvattha</t>
+  </si>
+  <si>
+    <t>ahesiṃ</t>
+  </si>
+  <si>
+    <t>ahumha</t>
+  </si>
+  <si>
+    <t>santi</t>
+  </si>
+  <si>
+    <t>asi</t>
+  </si>
+  <si>
+    <t>attha</t>
+  </si>
+  <si>
+    <t>asmi</t>
+  </si>
+  <si>
+    <t>amha</t>
+  </si>
+  <si>
+    <t>amhi</t>
+  </si>
+  <si>
+    <t>amhā</t>
+  </si>
+  <si>
+    <t>avocuṃ</t>
+  </si>
+  <si>
+    <t>avocuttha</t>
+  </si>
+  <si>
+    <t>avocaṃ</t>
+  </si>
+  <si>
+    <t>avocumha</t>
+  </si>
+  <si>
+    <t>avaca</t>
+  </si>
+  <si>
+    <t>avocumhā</t>
+  </si>
+  <si>
+    <t>karonti</t>
+  </si>
+  <si>
+    <t>karosi</t>
+  </si>
+  <si>
+    <t>karotha</t>
+  </si>
+  <si>
+    <t>karomi</t>
+  </si>
+  <si>
+    <t>karoma</t>
+  </si>
+  <si>
+    <t>karontu</t>
+  </si>
+  <si>
+    <t>karohi</t>
+  </si>
+  <si>
+    <t>with the fortunate</t>
+  </si>
+  <si>
+    <t>bhagavatā</t>
+  </si>
+  <si>
+    <t>with God</t>
+  </si>
+  <si>
+    <t>with king</t>
+  </si>
+  <si>
+    <t>brahmunā</t>
+  </si>
+  <si>
+    <t>rañña</t>
+  </si>
+  <si>
+    <t>Wardef</t>
+  </si>
+  <si>
+    <t>tayā</t>
+  </si>
+  <si>
+    <t>with you (thou)</t>
+  </si>
+  <si>
+    <t>with you(s)</t>
+  </si>
+  <si>
+    <t>with you (enclitic)</t>
+  </si>
+  <si>
+    <t>tumhehi</t>
+  </si>
+  <si>
+    <t>tehi</t>
+  </si>
+  <si>
+    <t>with them, those</t>
+  </si>
+  <si>
+    <t>with him, that, it</t>
+  </si>
+  <si>
+    <t>with her</t>
+  </si>
+  <si>
+    <t>she</t>
+  </si>
+  <si>
+    <t>tāya</t>
+  </si>
+  <si>
+    <t>he, she, that, it</t>
+  </si>
+  <si>
+    <t>tāhi</t>
+  </si>
+  <si>
+    <t>with them, those (fem.)</t>
+  </si>
+  <si>
+    <t>iminā</t>
+  </si>
+  <si>
+    <t>imāya</t>
+  </si>
+  <si>
+    <t>imehi</t>
+  </si>
+  <si>
+    <t>imāhi</t>
+  </si>
+  <si>
+    <t>"you", "sir", "your honour", "his honour"</t>
+  </si>
+  <si>
+    <t>with "you", "sir", "your honour", "his honour"</t>
+  </si>
+  <si>
+    <t>bhavantaṃ</t>
+  </si>
+  <si>
+    <t>bhavante</t>
+  </si>
+  <si>
+    <t>bhotā</t>
+  </si>
+  <si>
+    <t>bhavantehi</t>
+  </si>
+  <si>
+    <t>bhonto</t>
+  </si>
+  <si>
+    <t>bho</t>
+  </si>
+  <si>
+    <t>of the fortunate</t>
+  </si>
+  <si>
+    <t>of God</t>
+  </si>
+  <si>
+    <t>of king</t>
+  </si>
+  <si>
+    <t>of "you", "sir", "your honour", "his honour"</t>
+  </si>
+  <si>
+    <t>bhagavato</t>
+  </si>
+  <si>
+    <t>rājā</t>
+  </si>
+  <si>
+    <t>bhoto</t>
+  </si>
+  <si>
+    <t>of I</t>
+  </si>
+  <si>
+    <t>mama</t>
+  </si>
+  <si>
+    <t>of I (enclitic)</t>
+  </si>
+  <si>
+    <t>of us</t>
+  </si>
+  <si>
+    <t>amhākaṃ</t>
+  </si>
+  <si>
+    <t>of you (thou)</t>
+  </si>
+  <si>
+    <t>of you(s)</t>
+  </si>
+  <si>
+    <t>of you (enclitic)</t>
+  </si>
+  <si>
+    <t>tava</t>
+  </si>
+  <si>
+    <t>tumhākaṃ</t>
+  </si>
+  <si>
+    <t>tassa</t>
+  </si>
+  <si>
+    <t>tassā</t>
+  </si>
+  <si>
+    <t>of her</t>
+  </si>
+  <si>
+    <t>of his, that, it</t>
+  </si>
+  <si>
+    <t>etassa</t>
+  </si>
+  <si>
+    <t>etassā</t>
+  </si>
+  <si>
+    <t>of her, this, it (deictic)</t>
+  </si>
+  <si>
+    <t>of his, this, it (deictic)</t>
+  </si>
+  <si>
+    <t>with them, those  (anaphoric)</t>
+  </si>
+  <si>
+    <t>with that, it (anaphoric)</t>
+  </si>
+  <si>
+    <t>tesam</t>
+  </si>
+  <si>
+    <t>tesaṃ</t>
+  </si>
+  <si>
+    <t>tāsaṃ</t>
+  </si>
+  <si>
+    <t>of them, those</t>
+  </si>
+  <si>
+    <t>of them, those (fem.)</t>
+  </si>
+  <si>
+    <t>of that, it (anaphoric)</t>
+  </si>
+  <si>
+    <t>of them, those  (anaphoric)</t>
+  </si>
+  <si>
+    <t>by him (deictic)</t>
+  </si>
+  <si>
+    <t>by this, it (diectic)</t>
+  </si>
+  <si>
+    <t>by her (deictic)</t>
+  </si>
+  <si>
+    <t>by them (masc)</t>
+  </si>
+  <si>
+    <t>by them (fem)</t>
+  </si>
+  <si>
+    <t>by these (neut)</t>
+  </si>
+  <si>
+    <t>of him (deictic)</t>
+  </si>
+  <si>
+    <t>of her (deictic)</t>
+  </si>
+  <si>
+    <t>imesaṃ</t>
+  </si>
+  <si>
+    <t>imāsaṃ</t>
+  </si>
+  <si>
+    <t>of this, it (deictic)</t>
+  </si>
+  <si>
+    <t>assa</t>
+  </si>
+  <si>
+    <t>imassa</t>
+  </si>
+  <si>
+    <t>imassā</t>
+  </si>
+  <si>
+    <t>of their (deictic)</t>
+  </si>
+  <si>
+    <t>addasaṃsu</t>
+  </si>
+  <si>
+    <t>addasatha</t>
+  </si>
+  <si>
+    <t>addasaṃ</t>
+  </si>
+  <si>
+    <t>addasāma</t>
+  </si>
+  <si>
+    <t>adamaṃsu</t>
+  </si>
+  <si>
+    <t>agamittha</t>
+  </si>
+  <si>
+    <t>agamāsiṃ</t>
+  </si>
+  <si>
+    <t>agamamhā</t>
+  </si>
+  <si>
+    <t>assosuṃ</t>
+  </si>
+  <si>
+    <t>assuttha</t>
+  </si>
+  <si>
+    <t>assosiṃ</t>
+  </si>
+  <si>
+    <t>assumha</t>
+  </si>
+  <si>
+    <t>who, which</t>
+  </si>
+  <si>
+    <t>with who, which</t>
+  </si>
+  <si>
+    <t>of who, which</t>
+  </si>
+  <si>
+    <t>yo</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>yaṃ</t>
+  </si>
+  <si>
+    <t>yad</t>
+  </si>
+  <si>
+    <t>yā</t>
+  </si>
+  <si>
+    <t>yassa</t>
+  </si>
+  <si>
+    <t>ye</t>
+  </si>
+  <si>
+    <t>yāni</t>
+  </si>
+  <si>
+    <t>yāya</t>
+  </si>
+  <si>
+    <t>yesam</t>
+  </si>
+  <si>
+    <t>anvayīnāma</t>
+  </si>
+  <si>
+    <t>pucchānāma</t>
+  </si>
+  <si>
+    <t>ko</t>
+  </si>
+  <si>
+    <t>kā</t>
+  </si>
+  <si>
+    <t>kiṃ</t>
+  </si>
+  <si>
+    <t>kaṃ</t>
+  </si>
+  <si>
+    <t>kena</t>
+  </si>
+  <si>
+    <t>ke</t>
+  </si>
+  <si>
+    <t>kassa</t>
+  </si>
+  <si>
+    <t>kissa</t>
+  </si>
+  <si>
+    <t>kassā</t>
+  </si>
+  <si>
+    <t>who?, which?, what?</t>
+  </si>
+  <si>
+    <t>kāni</t>
+  </si>
+  <si>
+    <t>kehi</t>
+  </si>
+  <si>
+    <t>kāhi</t>
+  </si>
+  <si>
+    <t>kesaṃ</t>
+  </si>
+  <si>
+    <t>kāsaṃ</t>
+  </si>
+  <si>
+    <t>of who?, which?, what?</t>
+  </si>
+  <si>
+    <t>with who?, which?, what?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3494,6 +3963,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3503,7 +3978,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3511,18 +3986,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3549,12 +4089,62 @@
     <tableColumn id="5" xr3:uid="{6984F689-0AE0-8546-9B12-68614794BB8E}" name="upasagga"/>
     <tableColumn id="6" xr3:uid="{3E7A700E-E877-8B42-8468-1308A4A97DE7}" name="dhātu"/>
     <tableColumn id="7" xr3:uid="{EF14A586-43D1-2744-9DBD-131775F912CD}" name="root"/>
-    <tableColumn id="8" xr3:uid="{3A815D83-6512-6A4F-898A-C4100F220E3D}" name="liṅga"/>
+    <tableColumn id="8" xr3:uid="{3A815D83-6512-6A4F-898A-C4100F220E3D}" name="stem"/>
     <tableColumn id="9" xr3:uid="{0CFE045F-E1FA-5D4C-9C09-66A11E92ABB8}" name="pada"/>
     <tableColumn id="10" xr3:uid="{2D8B1B7F-9400-5F4B-A775-F387DD989602}" name="lakāra"/>
     <tableColumn id="11" xr3:uid="{47111C8F-C2E4-BC49-BDA8-C3B5652EB324}" name="english"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{12C1AAB6-688B-DF48-8742-7C571447CD45}" name="Table3" displayName="Table3" ref="A1:H29" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:H29" xr:uid="{12C1AAB6-688B-DF48-8742-7C571447CD45}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H29">
+    <sortCondition ref="D2:D29"/>
+    <sortCondition descending="1" ref="E2:E29"/>
+    <sortCondition ref="F2:F29"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{895056D8-2F10-AA4D-B749-159900016046}" name="source"/>
+    <tableColumn id="2" xr3:uid="{50BBAAE9-1CDC-3748-8349-078CB7D57C12}" name="lesson"/>
+    <tableColumn id="3" xr3:uid="{73EE4926-6475-E443-BDA7-603DBC396B65}" name="page"/>
+    <tableColumn id="4" xr3:uid="{D694E558-D918-2D43-81C0-F38DB1395C78}" name="stem"/>
+    <tableColumn id="5" xr3:uid="{A834EDA0-3558-EA48-B039-235C4B87A70C}" name="vacana"/>
+    <tableColumn id="6" xr3:uid="{E806E821-A091-7149-A5D1-E63FA625A79C}" name="kāraka"/>
+    <tableColumn id="7" xr3:uid="{DD9DB7C0-D988-E54B-89FA-352A7CC3674F}" name="pada"/>
+    <tableColumn id="8" xr3:uid="{E6698FDF-9DBB-5044-8157-EE23B53FA525}" name="english"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B6E2CF36-08EE-A34C-B186-DF32B506B44B}" name="Table2" displayName="Table2" ref="A1:K129" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:K129" xr:uid="{B6E2CF36-08EE-A34C-B186-DF32B506B44B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K129">
+    <sortCondition ref="D2:D129"/>
+    <sortCondition ref="E2:E129"/>
+    <sortCondition descending="1" ref="F2:F129"/>
+    <sortCondition ref="G2:G129"/>
+    <sortCondition ref="H2:H129"/>
+    <sortCondition descending="1" ref="I2:I129"/>
+  </sortState>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{5C5B7392-33D0-5C42-B4B1-B3A27A20CE7B}" name="source"/>
+    <tableColumn id="2" xr3:uid="{4D806E45-B674-204E-9AEB-D6960F85D1FA}" name="lesson"/>
+    <tableColumn id="3" xr3:uid="{0E0EC18F-F89E-714F-BFC4-17FAB7E727AC}" name="page"/>
+    <tableColumn id="4" xr3:uid="{1C79A7F5-F1DE-A148-8677-585C2505CAD6}" name="stem"/>
+    <tableColumn id="5" xr3:uid="{D1AD0416-AEF4-2F41-B230-AAEF2257268E}" name="type"/>
+    <tableColumn id="6" xr3:uid="{69AD9172-7579-0A4E-9C68-6564BC9E4309}" name="vacana"/>
+    <tableColumn id="7" xr3:uid="{1934C4AA-DD2F-9D47-8963-2FAE93BB9F77}" name="purisa"/>
+    <tableColumn id="8" xr3:uid="{97C1972F-67F6-5F4A-A418-6859B240E276}" name="kāraka"/>
+    <tableColumn id="9" xr3:uid="{D4ADEF4D-EFE7-8C49-B223-C4B2464A501C}" name="liṅga"/>
+    <tableColumn id="10" xr3:uid="{90DEAEBB-B2DB-5943-8779-C9EF1D3F6434}" name="sabbanāma"/>
+    <tableColumn id="11" xr3:uid="{E7C2B14F-33D6-E145-B222-AD17C8383C50}" name="english"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3857,7 +4447,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EEF752-1E38-D246-B3C3-5032ABA633EF}">
   <dimension ref="A1:K188"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3895,7 +4487,7 @@
         <v>401</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>1136</v>
       </c>
       <c r="I1" t="s">
         <v>46</v>
@@ -9828,11 +10420,1404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0C1DBB-3E22-EE48-8513-3BA199E36DA5}">
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B2" s="3">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B8" s="4">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B11" s="4">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>255</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B12" s="4">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B13" s="4">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>255</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B14" s="4">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>255</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B15" s="4">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>255</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B16" s="3">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>305</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B17" s="3">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>305</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B18" s="3">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>305</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H18" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B19" s="3">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>305</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B20" s="3">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>305</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B21" s="3">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>305</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>305</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B23" s="3">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>305</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B24" s="3">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>270</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B25" s="3">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>270</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B26" s="3">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>270</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B27" s="3">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>270</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B28" s="3">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>270</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B29" s="3">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>270</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B30" s="3">
+        <v>6</v>
+      </c>
+      <c r="C30" s="3">
+        <v>36</v>
+      </c>
+      <c r="D30" t="s">
+        <v>270</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="H30" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B31" s="3">
+        <v>6</v>
+      </c>
+      <c r="C31" s="3">
+        <v>36</v>
+      </c>
+      <c r="D31" t="s">
+        <v>270</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B32" s="3">
+        <v>6</v>
+      </c>
+      <c r="C32" s="3">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s">
+        <v>270</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B33" s="3">
+        <v>6</v>
+      </c>
+      <c r="C33" s="3">
+        <v>36</v>
+      </c>
+      <c r="D33" t="s">
+        <v>270</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B34" s="3">
+        <v>6</v>
+      </c>
+      <c r="C34" s="3">
+        <v>36</v>
+      </c>
+      <c r="D34" t="s">
+        <v>270</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B35" s="3">
+        <v>6</v>
+      </c>
+      <c r="C35" s="3">
+        <v>36</v>
+      </c>
+      <c r="D35" t="s">
+        <v>270</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B36" s="3">
+        <v>11</v>
+      </c>
+      <c r="C36" s="3">
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
+        <v>475</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H36" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B37" s="3">
+        <v>11</v>
+      </c>
+      <c r="C37" s="3">
+        <v>64</v>
+      </c>
+      <c r="D37" t="s">
+        <v>475</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B38" s="3">
+        <v>11</v>
+      </c>
+      <c r="C38" s="3">
+        <v>64</v>
+      </c>
+      <c r="D38" t="s">
+        <v>475</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H38" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B39" s="3">
+        <v>11</v>
+      </c>
+      <c r="C39" s="3">
+        <v>64</v>
+      </c>
+      <c r="D39" t="s">
+        <v>475</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B40" s="3">
+        <v>11</v>
+      </c>
+      <c r="C40" s="3">
+        <v>64</v>
+      </c>
+      <c r="D40" t="s">
+        <v>475</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B41" s="3">
+        <v>11</v>
+      </c>
+      <c r="C41" s="3">
+        <v>64</v>
+      </c>
+      <c r="D41" t="s">
+        <v>475</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B42" s="3">
+        <v>11</v>
+      </c>
+      <c r="C42" s="3">
+        <v>64</v>
+      </c>
+      <c r="D42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H42" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B43" s="3">
+        <v>11</v>
+      </c>
+      <c r="C43" s="3">
+        <v>64</v>
+      </c>
+      <c r="D43" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B44" s="3">
+        <v>11</v>
+      </c>
+      <c r="C44" s="3">
+        <v>64</v>
+      </c>
+      <c r="D44" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H44" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B45" s="3">
+        <v>11</v>
+      </c>
+      <c r="C45" s="3">
+        <v>64</v>
+      </c>
+      <c r="D45" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B46" s="3">
+        <v>11</v>
+      </c>
+      <c r="C46" s="3">
+        <v>64</v>
+      </c>
+      <c r="D46" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B47" s="3">
+        <v>11</v>
+      </c>
+      <c r="C47" s="3">
+        <v>64</v>
+      </c>
+      <c r="D47" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B48" s="3">
+        <v>12</v>
+      </c>
+      <c r="C48" s="3">
+        <v>70</v>
+      </c>
+      <c r="D48" t="s">
+        <v>507</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H48" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B49" s="3">
+        <v>11</v>
+      </c>
+      <c r="C49" s="3">
+        <v>64</v>
+      </c>
+      <c r="D49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B50" s="3">
+        <v>11</v>
+      </c>
+      <c r="C50" s="3">
+        <v>64</v>
+      </c>
+      <c r="D50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H50" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B51" s="3">
+        <v>11</v>
+      </c>
+      <c r="C51" s="3">
+        <v>64</v>
+      </c>
+      <c r="D51" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B52" s="3">
+        <v>11</v>
+      </c>
+      <c r="C52" s="3">
+        <v>64</v>
+      </c>
+      <c r="D52" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B53" s="3">
+        <v>11</v>
+      </c>
+      <c r="C53" s="3">
+        <v>64</v>
+      </c>
+      <c r="D53" t="s">
+        <v>105</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5ACCE9C-157C-8142-A11D-A796B8BC62F9}">
   <dimension ref="A1:F133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12506,18 +14491,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61F19DE-F0D9-304B-B2F1-DE9E619D03DB}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="91.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -12531,13 +14517,13 @@
         <v>500</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1132</v>
+        <v>1136</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1076</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>46</v>
@@ -12557,16 +14543,16 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>287</v>
+        <v>410</v>
       </c>
       <c r="E2" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1121</v>
+        <v>1142</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
       <c r="H2" t="s">
         <v>409</v>
@@ -12583,16 +14569,16 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>287</v>
+        <v>410</v>
       </c>
       <c r="E3" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1121</v>
+        <v>1142</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="H3" t="s">
         <v>409</v>
@@ -12603,25 +14589,25 @@
         <v>499</v>
       </c>
       <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>287</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1122</v>
-      </c>
       <c r="G4" t="s">
-        <v>1137</v>
+        <v>1175</v>
       </c>
       <c r="H4" t="s">
-        <v>409</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -12629,25 +14615,25 @@
         <v>499</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>287</v>
+        <v>410</v>
       </c>
       <c r="E5" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1122</v>
+        <v>1142</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>1136</v>
+        <v>1211</v>
       </c>
       <c r="H5" t="s">
-        <v>409</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -12661,19 +14647,19 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>287</v>
+        <v>410</v>
       </c>
       <c r="E6" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1121</v>
+        <v>1143</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>1138</v>
+        <v>1128</v>
       </c>
       <c r="H6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -12687,19 +14673,19 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>287</v>
+        <v>410</v>
       </c>
       <c r="E7" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1121</v>
+        <v>1143</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>1139</v>
+        <v>1128</v>
       </c>
       <c r="H7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -12707,25 +14693,25 @@
         <v>499</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>287</v>
+        <v>547</v>
       </c>
       <c r="E8" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1122</v>
+        <v>1142</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>1140</v>
+        <v>1206</v>
       </c>
       <c r="H8" t="s">
-        <v>412</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -12733,25 +14719,25 @@
         <v>499</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>287</v>
+        <v>547</v>
       </c>
       <c r="E9" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1122</v>
+        <v>1142</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>1139</v>
+        <v>398</v>
       </c>
       <c r="H9" t="s">
-        <v>412</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -12759,25 +14745,25 @@
         <v>499</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>287</v>
+        <v>547</v>
       </c>
       <c r="E10" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1121</v>
+        <v>1142</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>1141</v>
+        <v>1201</v>
       </c>
       <c r="H10" t="s">
-        <v>412</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -12785,25 +14771,25 @@
         <v>499</v>
       </c>
       <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>547</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F11">
         <v>3</v>
       </c>
-      <c r="C11">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>287</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1121</v>
-      </c>
       <c r="G11" t="s">
-        <v>1142</v>
+        <v>1203</v>
       </c>
       <c r="H11" t="s">
-        <v>412</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -12811,25 +14797,25 @@
         <v>499</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>287</v>
+        <v>547</v>
       </c>
       <c r="E12" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1122</v>
+        <v>1142</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>1143</v>
+        <v>1213</v>
       </c>
       <c r="H12" t="s">
-        <v>412</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -12837,50 +14823,471 @@
         <v>499</v>
       </c>
       <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>547</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>499</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>547</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>548</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>499</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>547</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>499</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>547</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1202</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>499</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>547</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F17">
         <v>3</v>
       </c>
-      <c r="C13">
+      <c r="G17" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>499</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
         <v>20</v>
       </c>
-      <c r="D13" t="s">
-        <v>287</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1122</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="D18" t="s">
+        <v>411</v>
+      </c>
+      <c r="E18" t="s">
         <v>1142</v>
       </c>
-      <c r="H13" t="s">
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H18" t="s">
         <v>412</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>499</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>411</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H19" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>499</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>411</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>499</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>411</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>499</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>411</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H22" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>499</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>411</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H23" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>499</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>413</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H24" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>499</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>413</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H25" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>499</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s">
+        <v>413</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>499</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
+        <v>413</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>499</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>413</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H28" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>499</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>413</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H29" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2215B98-3D7B-2C49-9925-33FA782F49C9}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" customWidth="1"/>
-    <col min="10" max="10" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="28.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>502</v>
       </c>
@@ -12891,1473 +15298,4520 @@
         <v>500</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>1076</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1077</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>499</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>1134</v>
+        <v>1139</v>
       </c>
       <c r="E2" t="s">
-        <v>1081</v>
+        <v>1126</v>
       </c>
       <c r="F2" t="s">
-        <v>1080</v>
+        <v>1142</v>
       </c>
       <c r="G2" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H2" t="s">
-        <v>511</v>
+        <v>1146</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>1009</v>
+        <v>94</v>
       </c>
       <c r="J2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="K2" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>499</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>1134</v>
+        <v>1139</v>
       </c>
       <c r="E3" t="s">
-        <v>1081</v>
+        <v>1126</v>
       </c>
       <c r="F3" t="s">
-        <v>1080</v>
+        <v>1142</v>
       </c>
       <c r="G3" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H3" t="s">
-        <v>511</v>
+        <v>1146</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>1102</v>
+        <v>94</v>
       </c>
       <c r="J3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="K3" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>499</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>1133</v>
+        <v>1139</v>
       </c>
       <c r="E4" t="s">
-        <v>1081</v>
+        <v>1126</v>
       </c>
       <c r="F4" t="s">
-        <v>1080</v>
+        <v>1142</v>
       </c>
       <c r="G4" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H4" t="s">
-        <v>94</v>
+        <v>1146</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>1090</v>
+        <v>511</v>
       </c>
       <c r="J4" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1100</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>499</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>1133</v>
+        <v>1139</v>
       </c>
       <c r="E5" t="s">
-        <v>1081</v>
+        <v>1126</v>
       </c>
       <c r="F5" t="s">
-        <v>1080</v>
+        <v>1142</v>
       </c>
       <c r="G5" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H5" t="s">
-        <v>94</v>
+        <v>1146</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>1092</v>
+        <v>511</v>
       </c>
       <c r="J5" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1102</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>499</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>1133</v>
+        <v>1139</v>
       </c>
       <c r="E6" t="s">
-        <v>1081</v>
+        <v>1126</v>
       </c>
       <c r="F6" t="s">
-        <v>1080</v>
+        <v>1142</v>
       </c>
       <c r="G6" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H6" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
         <v>690</v>
       </c>
-      <c r="I6" t="s">
-        <v>1093</v>
-      </c>
       <c r="J6" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1107</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>499</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>1133</v>
+        <v>1139</v>
       </c>
       <c r="E7" t="s">
-        <v>1081</v>
+        <v>1126</v>
       </c>
       <c r="F7" t="s">
-        <v>1079</v>
+        <v>1142</v>
       </c>
       <c r="G7" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1113</v>
+        <v>1146</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="J7" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1100</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>499</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>1133</v>
+        <v>1139</v>
       </c>
       <c r="E8" t="s">
-        <v>1081</v>
+        <v>1126</v>
       </c>
       <c r="F8" t="s">
-        <v>1078</v>
+        <v>1142</v>
       </c>
       <c r="G8" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1113</v>
+        <v>1146</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>1084</v>
+        <v>511</v>
       </c>
       <c r="J8" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1102</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>499</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>1134</v>
+        <v>1139</v>
       </c>
       <c r="E9" t="s">
-        <v>1082</v>
+        <v>1126</v>
       </c>
       <c r="F9" t="s">
-        <v>1080</v>
+        <v>1142</v>
       </c>
       <c r="G9" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H9" t="s">
-        <v>511</v>
+        <v>1146</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>1103</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1228</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>499</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>1133</v>
+        <v>1139</v>
       </c>
       <c r="E10" t="s">
-        <v>1082</v>
+        <v>1126</v>
       </c>
       <c r="F10" t="s">
-        <v>1080</v>
+        <v>1142</v>
       </c>
       <c r="G10" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H10" t="s">
-        <v>94</v>
+        <v>1146</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>1094</v>
+        <v>690</v>
       </c>
       <c r="J10" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1229</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>499</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>1133</v>
+        <v>1139</v>
       </c>
       <c r="E11" t="s">
-        <v>1082</v>
+        <v>1126</v>
       </c>
       <c r="F11" t="s">
-        <v>1080</v>
+        <v>1143</v>
       </c>
       <c r="G11" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H11" t="s">
-        <v>690</v>
+        <v>1146</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>1095</v>
+        <v>94</v>
       </c>
       <c r="J11" t="s">
+        <v>1113</v>
+      </c>
+      <c r="K11" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>499</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>1133</v>
+        <v>1139</v>
       </c>
       <c r="E12" t="s">
-        <v>1082</v>
+        <v>1126</v>
       </c>
       <c r="F12" t="s">
-        <v>1079</v>
+        <v>1143</v>
       </c>
       <c r="G12" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H12" t="s">
-        <v>1113</v>
+        <v>1146</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>1091</v>
+        <v>511</v>
       </c>
       <c r="J12" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1112</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>499</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>1133</v>
+        <v>1139</v>
       </c>
       <c r="E13" t="s">
-        <v>1082</v>
+        <v>1126</v>
       </c>
       <c r="F13" t="s">
-        <v>1078</v>
+        <v>1143</v>
       </c>
       <c r="G13" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H13" t="s">
-        <v>1113</v>
+        <v>1146</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>1085</v>
+        <v>690</v>
       </c>
       <c r="J13" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1114</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>499</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>1134</v>
+        <v>1139</v>
       </c>
       <c r="E14" t="s">
-        <v>1081</v>
+        <v>1126</v>
       </c>
       <c r="F14" t="s">
-        <v>1080</v>
+        <v>1143</v>
       </c>
       <c r="G14" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H14" t="s">
-        <v>1089</v>
+        <v>1146</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>1009</v>
+        <v>94</v>
       </c>
       <c r="J14" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1113</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>499</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>1134</v>
+        <v>1139</v>
       </c>
       <c r="E15" t="s">
-        <v>1081</v>
+        <v>1126</v>
       </c>
       <c r="F15" t="s">
-        <v>1080</v>
+        <v>1143</v>
       </c>
       <c r="G15" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H15" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
         <v>511</v>
       </c>
-      <c r="I15" t="s">
-        <v>1102</v>
-      </c>
       <c r="J15" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1112</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>499</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>1133</v>
+        <v>1139</v>
       </c>
       <c r="E16" t="s">
-        <v>1081</v>
+        <v>1126</v>
       </c>
       <c r="F16" t="s">
-        <v>1079</v>
+        <v>1143</v>
       </c>
       <c r="G16" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H16" t="s">
-        <v>1113</v>
+        <v>1146</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>1088</v>
+        <v>690</v>
       </c>
       <c r="J16" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1114</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>499</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>1133</v>
+        <v>1140</v>
       </c>
       <c r="E17" t="s">
-        <v>1081</v>
+        <v>1126</v>
       </c>
       <c r="F17" t="s">
-        <v>1079</v>
+        <v>1142</v>
       </c>
       <c r="G17" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H17" t="s">
-        <v>1113</v>
+        <v>1146</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>1009</v>
+        <v>1108</v>
       </c>
       <c r="J17" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1118</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>499</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18">
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>1133</v>
+        <v>1140</v>
       </c>
       <c r="E18" t="s">
-        <v>1081</v>
+        <v>1126</v>
       </c>
       <c r="F18" t="s">
-        <v>1078</v>
+        <v>1142</v>
       </c>
       <c r="G18" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H18" t="s">
-        <v>1113</v>
+        <v>1146</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>1086</v>
+        <v>511</v>
       </c>
       <c r="J18" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K18" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>499</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>1134</v>
+        <v>1140</v>
       </c>
       <c r="E19" t="s">
-        <v>1082</v>
+        <v>1126</v>
       </c>
       <c r="F19" t="s">
-        <v>1080</v>
+        <v>1142</v>
       </c>
       <c r="G19" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H19" t="s">
-        <v>511</v>
+        <v>1146</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>1103</v>
+        <v>1108</v>
       </c>
       <c r="J19" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1118</v>
+      </c>
+      <c r="K19" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>499</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20">
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>1133</v>
+        <v>1140</v>
       </c>
       <c r="E20" t="s">
-        <v>1082</v>
+        <v>1126</v>
       </c>
       <c r="F20" t="s">
-        <v>1080</v>
+        <v>1142</v>
       </c>
       <c r="G20" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H20" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>511</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>499</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21" t="s">
         <v>94</v>
       </c>
-      <c r="I20" t="s">
-        <v>1094</v>
-      </c>
-      <c r="J20" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>499</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1080</v>
-      </c>
-      <c r="G21" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
+        <v>1195</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>499</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22" t="s">
+        <v>511</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1195</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>499</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
         <v>690</v>
       </c>
-      <c r="I21" t="s">
-        <v>1095</v>
-      </c>
-      <c r="J21" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>499</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1079</v>
-      </c>
-      <c r="G22" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H22" t="s">
-        <v>1113</v>
-      </c>
-      <c r="I22" t="s">
-        <v>1091</v>
-      </c>
-      <c r="J22" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>499</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1078</v>
-      </c>
-      <c r="G23" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H23" t="s">
-        <v>1113</v>
-      </c>
-      <c r="I23" t="s">
-        <v>1087</v>
-      </c>
       <c r="J23" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1196</v>
+      </c>
+      <c r="K23" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>499</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>1134</v>
+        <v>1140</v>
       </c>
       <c r="E24" t="s">
-        <v>1081</v>
+        <v>1126</v>
       </c>
       <c r="F24" t="s">
-        <v>1080</v>
+        <v>1142</v>
       </c>
       <c r="G24" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H24" t="s">
-        <v>511</v>
+        <v>1146</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
       </c>
       <c r="I24" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="J24" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1252</v>
+      </c>
+      <c r="K24" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>499</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C25">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>1134</v>
+        <v>1140</v>
       </c>
       <c r="E25" t="s">
-        <v>1081</v>
+        <v>1126</v>
       </c>
       <c r="F25" t="s">
-        <v>1080</v>
+        <v>1142</v>
       </c>
       <c r="G25" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H25" t="s">
-        <v>511</v>
+        <v>1146</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
       </c>
       <c r="I25" t="s">
-        <v>1107</v>
+        <v>94</v>
       </c>
       <c r="J25" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1253</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>499</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>1134</v>
+        <v>1140</v>
       </c>
       <c r="E26" t="s">
-        <v>1081</v>
+        <v>1126</v>
       </c>
       <c r="F26" t="s">
-        <v>1080</v>
+        <v>1142</v>
       </c>
       <c r="G26" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H26" t="s">
-        <v>94</v>
+        <v>1146</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>1108</v>
+        <v>690</v>
       </c>
       <c r="J26" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1254</v>
+      </c>
+      <c r="K26" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>499</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27">
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>1134</v>
+        <v>1140</v>
       </c>
       <c r="E27" t="s">
-        <v>1081</v>
+        <v>1126</v>
       </c>
       <c r="F27" t="s">
-        <v>1080</v>
+        <v>1143</v>
       </c>
       <c r="G27" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H27" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
         <v>94</v>
       </c>
-      <c r="I27" t="s">
-        <v>1110</v>
-      </c>
       <c r="J27" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1123</v>
+      </c>
+      <c r="K27" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>499</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>1134</v>
+        <v>1140</v>
       </c>
       <c r="E28" t="s">
-        <v>1081</v>
+        <v>1126</v>
       </c>
       <c r="F28" t="s">
-        <v>1080</v>
+        <v>1143</v>
       </c>
       <c r="G28" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>511</v>
+      </c>
+      <c r="J28" t="s">
         <v>1121</v>
       </c>
-      <c r="H28" t="s">
-        <v>690</v>
-      </c>
-      <c r="I28" t="s">
-        <v>1112</v>
-      </c>
-      <c r="J28" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>499</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29">
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>1134</v>
+        <v>1140</v>
       </c>
       <c r="E29" t="s">
-        <v>1082</v>
+        <v>1126</v>
       </c>
       <c r="F29" t="s">
-        <v>1080</v>
+        <v>1143</v>
       </c>
       <c r="G29" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H29" t="s">
-        <v>511</v>
+        <v>1146</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>1117</v>
+        <v>690</v>
       </c>
       <c r="J29" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1124</v>
+      </c>
+      <c r="K29" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>499</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30">
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>1134</v>
+        <v>1140</v>
       </c>
       <c r="E30" t="s">
-        <v>1082</v>
+        <v>1126</v>
       </c>
       <c r="F30" t="s">
-        <v>1080</v>
+        <v>1143</v>
       </c>
       <c r="G30" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H30" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30" t="s">
         <v>94</v>
       </c>
-      <c r="I30" t="s">
-        <v>1118</v>
-      </c>
       <c r="J30" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1123</v>
+      </c>
+      <c r="K30" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>499</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C31">
         <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>1134</v>
+        <v>1140</v>
       </c>
       <c r="E31" t="s">
-        <v>1082</v>
+        <v>1126</v>
       </c>
       <c r="F31" t="s">
-        <v>1080</v>
+        <v>1143</v>
       </c>
       <c r="G31" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31" t="s">
+        <v>511</v>
+      </c>
+      <c r="J31" t="s">
         <v>1121</v>
       </c>
-      <c r="H31" t="s">
-        <v>690</v>
-      </c>
-      <c r="I31" t="s">
-        <v>1119</v>
-      </c>
-      <c r="J31" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K31" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>499</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32">
         <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>1134</v>
+        <v>1140</v>
       </c>
       <c r="E32" t="s">
-        <v>1081</v>
+        <v>1126</v>
       </c>
       <c r="F32" t="s">
-        <v>1080</v>
+        <v>1143</v>
       </c>
       <c r="G32" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H32" t="s">
-        <v>1089</v>
+        <v>1146</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>1105</v>
+        <v>690</v>
       </c>
       <c r="J32" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1124</v>
+      </c>
+      <c r="K32" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>499</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C33">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>1134</v>
+        <v>1140</v>
       </c>
       <c r="E33" t="s">
-        <v>1081</v>
+        <v>1126</v>
       </c>
       <c r="F33" t="s">
-        <v>1080</v>
+        <v>1143</v>
       </c>
       <c r="G33" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H33" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33" t="s">
+        <v>94</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K33" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>499</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>42</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34" t="s">
         <v>511</v>
       </c>
-      <c r="I33" t="s">
-        <v>1107</v>
-      </c>
-      <c r="J33" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>499</v>
-      </c>
-      <c r="B34">
-        <v>4</v>
-      </c>
-      <c r="C34">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F34" t="s">
-        <v>1080</v>
-      </c>
-      <c r="G34" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H34" t="s">
-        <v>511</v>
-      </c>
-      <c r="I34" t="s">
-        <v>1117</v>
-      </c>
       <c r="J34" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1197</v>
+      </c>
+      <c r="K34" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>499</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C35">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>1134</v>
+        <v>1140</v>
       </c>
       <c r="E35" t="s">
-        <v>1082</v>
+        <v>1126</v>
       </c>
       <c r="F35" t="s">
-        <v>1080</v>
+        <v>1143</v>
       </c>
       <c r="G35" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H35" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35" t="s">
+        <v>690</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K35" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>499</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>56</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H36">
+        <v>6</v>
+      </c>
+      <c r="I36" t="s">
         <v>94</v>
       </c>
-      <c r="I35" t="s">
-        <v>1118</v>
-      </c>
-      <c r="J35" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>499</v>
-      </c>
-      <c r="B36">
-        <v>4</v>
-      </c>
-      <c r="C36">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F36" t="s">
-        <v>1080</v>
-      </c>
-      <c r="G36" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="J36" t="s">
+        <v>1249</v>
+      </c>
+      <c r="K36" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>499</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>56</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H37">
+        <v>6</v>
+      </c>
+      <c r="I37" t="s">
         <v>690</v>
       </c>
-      <c r="I36" t="s">
-        <v>1119</v>
-      </c>
-      <c r="J36" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>499</v>
-      </c>
-      <c r="B37">
-        <v>4</v>
-      </c>
-      <c r="C37">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F37" t="s">
-        <v>1080</v>
-      </c>
-      <c r="G37" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H37" t="s">
-        <v>511</v>
-      </c>
-      <c r="I37" t="s">
-        <v>1126</v>
-      </c>
       <c r="J37" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1250</v>
+      </c>
+      <c r="K37" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>499</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C38">
         <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
       <c r="E38" t="s">
-        <v>1081</v>
+        <v>1125</v>
       </c>
       <c r="F38" t="s">
-        <v>1080</v>
+        <v>1142</v>
       </c>
       <c r="G38" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H38" t="s">
-        <v>1113</v>
+        <v>1144</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>1125</v>
+        <v>1084</v>
       </c>
       <c r="J38" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1079</v>
+      </c>
+      <c r="K38" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>499</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C39">
         <v>27</v>
       </c>
       <c r="D39" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
       <c r="E39" t="s">
-        <v>1082</v>
+        <v>1125</v>
       </c>
       <c r="F39" t="s">
-        <v>1080</v>
+        <v>1142</v>
       </c>
       <c r="G39" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H39" t="s">
-        <v>511</v>
+        <v>1144</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>1128</v>
+        <v>1084</v>
       </c>
       <c r="J39" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1081</v>
+      </c>
+      <c r="K39" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>499</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C40">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D40" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
       <c r="E40" t="s">
-        <v>1082</v>
+        <v>1125</v>
       </c>
       <c r="F40" t="s">
-        <v>1080</v>
+        <v>1142</v>
       </c>
       <c r="G40" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H40" t="s">
-        <v>94</v>
+        <v>1144</v>
+      </c>
+      <c r="H40">
+        <v>6</v>
       </c>
       <c r="I40" t="s">
-        <v>1130</v>
+        <v>1084</v>
       </c>
       <c r="J40" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1215</v>
+      </c>
+      <c r="K40" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>499</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C41">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D41" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
       <c r="E41" t="s">
-        <v>1082</v>
+        <v>1125</v>
       </c>
       <c r="F41" t="s">
-        <v>1080</v>
+        <v>1142</v>
       </c>
       <c r="G41" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H41" t="s">
-        <v>690</v>
+        <v>1144</v>
+      </c>
+      <c r="H41">
+        <v>6</v>
       </c>
       <c r="I41" t="s">
-        <v>1131</v>
+        <v>1084</v>
       </c>
       <c r="J41" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1096</v>
+      </c>
+      <c r="K41" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>499</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C42">
         <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
       <c r="E42" t="s">
-        <v>1081</v>
+        <v>1125</v>
       </c>
       <c r="F42" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J42" t="s">
         <v>1080</v>
       </c>
-      <c r="G42" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H42" t="s">
-        <v>511</v>
-      </c>
-      <c r="I42" t="s">
-        <v>1126</v>
-      </c>
-      <c r="J42" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K42" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>499</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C43">
         <v>27</v>
       </c>
       <c r="D43" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
       <c r="E43" t="s">
-        <v>1081</v>
+        <v>1125</v>
       </c>
       <c r="F43" t="s">
-        <v>1080</v>
+        <v>1143</v>
       </c>
       <c r="G43" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H43" t="s">
-        <v>1113</v>
+        <v>1144</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
       </c>
       <c r="I43" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J43" t="s">
+        <v>1082</v>
+      </c>
+      <c r="K43" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>499</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>56</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E44" t="s">
         <v>1125</v>
       </c>
-      <c r="J43" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>499</v>
-      </c>
-      <c r="B44">
-        <v>4</v>
-      </c>
-      <c r="C44">
-        <v>27</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1082</v>
-      </c>
       <c r="F44" t="s">
-        <v>1080</v>
+        <v>1143</v>
       </c>
       <c r="G44" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H44" t="s">
-        <v>511</v>
+        <v>1144</v>
+      </c>
+      <c r="H44">
+        <v>6</v>
       </c>
       <c r="I44" t="s">
-        <v>1128</v>
+        <v>1084</v>
       </c>
       <c r="J44" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1218</v>
+      </c>
+      <c r="K44" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>499</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C45">
         <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="E45" t="s">
-        <v>1082</v>
+        <v>1126</v>
       </c>
       <c r="F45" t="s">
-        <v>1080</v>
+        <v>1142</v>
       </c>
       <c r="G45" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H45" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
         <v>94</v>
       </c>
-      <c r="I45" t="s">
-        <v>1130</v>
-      </c>
       <c r="J45" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1085</v>
+      </c>
+      <c r="K45" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>499</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C46">
         <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="E46" t="s">
-        <v>1082</v>
+        <v>1126</v>
       </c>
       <c r="F46" t="s">
-        <v>1080</v>
+        <v>1142</v>
       </c>
       <c r="G46" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H46" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>94</v>
+      </c>
+      <c r="J46" t="s">
+        <v>1087</v>
+      </c>
+      <c r="K46" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>499</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>27</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>511</v>
+      </c>
+      <c r="J47" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K47" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>499</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>27</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
+        <v>511</v>
+      </c>
+      <c r="J48" t="s">
+        <v>1097</v>
+      </c>
+      <c r="K48" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>499</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>27</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
         <v>690</v>
       </c>
-      <c r="I46" t="s">
-        <v>1131</v>
-      </c>
-      <c r="J46" t="s">
-        <v>1120</v>
+      <c r="J49" t="s">
+        <v>1088</v>
+      </c>
+      <c r="K49" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>499</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>27</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J50" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K50" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>499</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>27</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51" t="s">
+        <v>511</v>
+      </c>
+      <c r="J51" t="s">
+        <v>1097</v>
+      </c>
+      <c r="K51" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>499</v>
+      </c>
+      <c r="B52">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>42</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52" t="s">
+        <v>511</v>
+      </c>
+      <c r="J52" t="s">
+        <v>314</v>
+      </c>
+      <c r="K52" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>499</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>56</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H53">
+        <v>6</v>
+      </c>
+      <c r="I53" t="s">
+        <v>511</v>
+      </c>
+      <c r="J53" t="s">
+        <v>1224</v>
+      </c>
+      <c r="K53" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>499</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>27</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>94</v>
+      </c>
+      <c r="J54" t="s">
+        <v>1089</v>
+      </c>
+      <c r="K54" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>499</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>27</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>511</v>
+      </c>
+      <c r="J55" t="s">
+        <v>1098</v>
+      </c>
+      <c r="K55" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>499</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>27</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>690</v>
+      </c>
+      <c r="J56" t="s">
+        <v>1090</v>
+      </c>
+      <c r="K56" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>499</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>27</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57" t="s">
+        <v>94</v>
+      </c>
+      <c r="J57" t="s">
+        <v>1089</v>
+      </c>
+      <c r="K57" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>499</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>27</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58" t="s">
+        <v>511</v>
+      </c>
+      <c r="J58" t="s">
+        <v>1098</v>
+      </c>
+      <c r="K58" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>499</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>27</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59" t="s">
+        <v>690</v>
+      </c>
+      <c r="J59" t="s">
+        <v>1090</v>
+      </c>
+      <c r="K59" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>499</v>
+      </c>
+      <c r="B60">
+        <v>7</v>
+      </c>
+      <c r="C60">
+        <v>42</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60" t="s">
+        <v>511</v>
+      </c>
+      <c r="J60" t="s">
+        <v>1191</v>
+      </c>
+      <c r="K60" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>499</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>56</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H61">
+        <v>6</v>
+      </c>
+      <c r="I61" t="s">
+        <v>511</v>
+      </c>
+      <c r="J61" t="s">
+        <v>1234</v>
+      </c>
+      <c r="K61" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>499</v>
+      </c>
+      <c r="B62">
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <v>73</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>94</v>
+      </c>
+      <c r="J62" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K62" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>499</v>
+      </c>
+      <c r="B63">
+        <v>12</v>
+      </c>
+      <c r="C63">
+        <v>73</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
+        <v>511</v>
+      </c>
+      <c r="J63" t="s">
+        <v>1285</v>
+      </c>
+      <c r="K63" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>499</v>
+      </c>
+      <c r="B64">
+        <v>12</v>
+      </c>
+      <c r="C64">
+        <v>73</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>511</v>
+      </c>
+      <c r="J64" t="s">
+        <v>1274</v>
+      </c>
+      <c r="K64" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>499</v>
+      </c>
+      <c r="B65">
+        <v>12</v>
+      </c>
+      <c r="C65">
+        <v>73</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>690</v>
+      </c>
+      <c r="J65" t="s">
+        <v>1284</v>
+      </c>
+      <c r="K65" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>499</v>
+      </c>
+      <c r="B66">
+        <v>12</v>
+      </c>
+      <c r="C66">
+        <v>73</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H66">
+        <v>2</v>
+      </c>
+      <c r="I66" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J66" t="s">
+        <v>1286</v>
+      </c>
+      <c r="K66" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>499</v>
+      </c>
+      <c r="B67">
+        <v>12</v>
+      </c>
+      <c r="C67">
+        <v>73</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G67" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H67">
+        <v>2</v>
+      </c>
+      <c r="I67" t="s">
+        <v>511</v>
+      </c>
+      <c r="J67" t="s">
+        <v>1285</v>
+      </c>
+      <c r="K67" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>499</v>
+      </c>
+      <c r="B68">
+        <v>12</v>
+      </c>
+      <c r="C68">
+        <v>73</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="I68" t="s">
+        <v>511</v>
+      </c>
+      <c r="J68" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K68" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>499</v>
+      </c>
+      <c r="B69">
+        <v>12</v>
+      </c>
+      <c r="C69">
+        <v>73</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H69">
+        <v>6</v>
+      </c>
+      <c r="I69" t="s">
+        <v>94</v>
+      </c>
+      <c r="J69" t="s">
+        <v>1289</v>
+      </c>
+      <c r="K69" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>499</v>
+      </c>
+      <c r="B70">
+        <v>12</v>
+      </c>
+      <c r="C70">
+        <v>73</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H70">
+        <v>6</v>
+      </c>
+      <c r="I70" t="s">
+        <v>94</v>
+      </c>
+      <c r="J70" t="s">
+        <v>1290</v>
+      </c>
+      <c r="K70" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>499</v>
+      </c>
+      <c r="B71">
+        <v>12</v>
+      </c>
+      <c r="C71">
+        <v>73</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G71" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H71">
+        <v>6</v>
+      </c>
+      <c r="I71" t="s">
+        <v>511</v>
+      </c>
+      <c r="J71" t="s">
+        <v>1289</v>
+      </c>
+      <c r="K71" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>499</v>
+      </c>
+      <c r="B72">
+        <v>12</v>
+      </c>
+      <c r="C72">
+        <v>73</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H72">
+        <v>6</v>
+      </c>
+      <c r="I72" t="s">
+        <v>511</v>
+      </c>
+      <c r="J72" t="s">
+        <v>1290</v>
+      </c>
+      <c r="K72" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>499</v>
+      </c>
+      <c r="B73">
+        <v>12</v>
+      </c>
+      <c r="C73">
+        <v>73</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G73" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H73">
+        <v>6</v>
+      </c>
+      <c r="I73" t="s">
+        <v>690</v>
+      </c>
+      <c r="J73" t="s">
+        <v>1291</v>
+      </c>
+      <c r="K73" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>499</v>
+      </c>
+      <c r="B74">
+        <v>12</v>
+      </c>
+      <c r="C74">
+        <v>73</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G74" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>94</v>
+      </c>
+      <c r="J74" t="s">
+        <v>1288</v>
+      </c>
+      <c r="K74" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>499</v>
+      </c>
+      <c r="B75">
+        <v>12</v>
+      </c>
+      <c r="C75">
+        <v>73</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G75" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75" t="s">
+        <v>511</v>
+      </c>
+      <c r="J75" t="s">
+        <v>1293</v>
+      </c>
+      <c r="K75" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>499</v>
+      </c>
+      <c r="B76">
+        <v>12</v>
+      </c>
+      <c r="C76">
+        <v>73</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G76" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76" t="s">
+        <v>690</v>
+      </c>
+      <c r="J76" t="s">
+        <v>1284</v>
+      </c>
+      <c r="K76" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>499</v>
+      </c>
+      <c r="B77">
+        <v>12</v>
+      </c>
+      <c r="C77">
+        <v>73</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77" t="s">
+        <v>94</v>
+      </c>
+      <c r="J77" t="s">
+        <v>1288</v>
+      </c>
+      <c r="K77" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>499</v>
+      </c>
+      <c r="B78">
+        <v>12</v>
+      </c>
+      <c r="C78">
+        <v>73</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G78" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78" t="s">
+        <v>511</v>
+      </c>
+      <c r="J78" t="s">
+        <v>1293</v>
+      </c>
+      <c r="K78" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>499</v>
+      </c>
+      <c r="B79">
+        <v>12</v>
+      </c>
+      <c r="C79">
+        <v>73</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G79" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H79">
+        <v>2</v>
+      </c>
+      <c r="I79" t="s">
+        <v>690</v>
+      </c>
+      <c r="J79" t="s">
+        <v>1284</v>
+      </c>
+      <c r="K79" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>499</v>
+      </c>
+      <c r="B80">
+        <v>12</v>
+      </c>
+      <c r="C80">
+        <v>73</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H80">
+        <v>3</v>
+      </c>
+      <c r="I80" t="s">
+        <v>94</v>
+      </c>
+      <c r="J80" t="s">
+        <v>1294</v>
+      </c>
+      <c r="K80" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>499</v>
+      </c>
+      <c r="B81">
+        <v>12</v>
+      </c>
+      <c r="C81">
+        <v>73</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G81" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H81">
+        <v>3</v>
+      </c>
+      <c r="I81" t="s">
+        <v>511</v>
+      </c>
+      <c r="J81" t="s">
+        <v>1294</v>
+      </c>
+      <c r="K81" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>499</v>
+      </c>
+      <c r="B82">
+        <v>12</v>
+      </c>
+      <c r="C82">
+        <v>73</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G82" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H82">
+        <v>3</v>
+      </c>
+      <c r="I82" t="s">
+        <v>690</v>
+      </c>
+      <c r="J82" t="s">
+        <v>1295</v>
+      </c>
+      <c r="K82" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>499</v>
+      </c>
+      <c r="B83">
+        <v>12</v>
+      </c>
+      <c r="C83">
+        <v>73</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H83">
+        <v>6</v>
+      </c>
+      <c r="I83" t="s">
+        <v>94</v>
+      </c>
+      <c r="J83" t="s">
+        <v>1296</v>
+      </c>
+      <c r="K83" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>499</v>
+      </c>
+      <c r="B84">
+        <v>12</v>
+      </c>
+      <c r="C84">
+        <v>73</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F84" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H84">
+        <v>6</v>
+      </c>
+      <c r="I84" t="s">
+        <v>511</v>
+      </c>
+      <c r="J84" t="s">
+        <v>1296</v>
+      </c>
+      <c r="K84" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>499</v>
+      </c>
+      <c r="B85">
+        <v>12</v>
+      </c>
+      <c r="C85">
+        <v>73</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G85" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H85">
+        <v>6</v>
+      </c>
+      <c r="I85" t="s">
+        <v>690</v>
+      </c>
+      <c r="J85" t="s">
+        <v>1297</v>
+      </c>
+      <c r="K85" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>499</v>
+      </c>
+      <c r="B86">
+        <v>12</v>
+      </c>
+      <c r="C86">
+        <v>70</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G86" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86" t="s">
+        <v>94</v>
+      </c>
+      <c r="J86" t="s">
+        <v>1271</v>
+      </c>
+      <c r="K86" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>499</v>
+      </c>
+      <c r="B87">
+        <v>12</v>
+      </c>
+      <c r="C87">
+        <v>70</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87" t="s">
+        <v>94</v>
+      </c>
+      <c r="J87" t="s">
+        <v>1272</v>
+      </c>
+      <c r="K87" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>499</v>
+      </c>
+      <c r="B88">
+        <v>12</v>
+      </c>
+      <c r="C88">
+        <v>70</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F88" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G88" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88" t="s">
+        <v>511</v>
+      </c>
+      <c r="J88" t="s">
+        <v>1273</v>
+      </c>
+      <c r="K88" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>499</v>
+      </c>
+      <c r="B89">
+        <v>12</v>
+      </c>
+      <c r="C89">
+        <v>70</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F89" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G89" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89" t="s">
+        <v>511</v>
+      </c>
+      <c r="J89" t="s">
+        <v>1274</v>
+      </c>
+      <c r="K89" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>499</v>
+      </c>
+      <c r="B90">
+        <v>12</v>
+      </c>
+      <c r="C90">
+        <v>70</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F90" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G90" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90" t="s">
+        <v>690</v>
+      </c>
+      <c r="J90" t="s">
+        <v>1275</v>
+      </c>
+      <c r="K90" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>499</v>
+      </c>
+      <c r="B91">
+        <v>12</v>
+      </c>
+      <c r="C91">
+        <v>70</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G91" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H91">
+        <v>2</v>
+      </c>
+      <c r="I91" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J91" t="s">
+        <v>1273</v>
+      </c>
+      <c r="K91" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>499</v>
+      </c>
+      <c r="B92">
+        <v>12</v>
+      </c>
+      <c r="C92">
+        <v>70</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G92" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H92">
+        <v>2</v>
+      </c>
+      <c r="I92" t="s">
+        <v>511</v>
+      </c>
+      <c r="J92" t="s">
+        <v>1274</v>
+      </c>
+      <c r="K92" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>499</v>
+      </c>
+      <c r="B93">
+        <v>12</v>
+      </c>
+      <c r="C93">
+        <v>70</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G93" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H93">
+        <v>3</v>
+      </c>
+      <c r="I93" t="s">
+        <v>511</v>
+      </c>
+      <c r="J93" t="s">
+        <v>407</v>
+      </c>
+      <c r="K93" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>499</v>
+      </c>
+      <c r="B94">
+        <v>12</v>
+      </c>
+      <c r="C94">
+        <v>70</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F94" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G94" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H94">
+        <v>6</v>
+      </c>
+      <c r="I94" t="s">
+        <v>511</v>
+      </c>
+      <c r="J94" t="s">
+        <v>1276</v>
+      </c>
+      <c r="K94" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>499</v>
+      </c>
+      <c r="B95">
+        <v>12</v>
+      </c>
+      <c r="C95">
+        <v>70</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F95" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G95" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95" t="s">
+        <v>94</v>
+      </c>
+      <c r="J95" t="s">
+        <v>1277</v>
+      </c>
+      <c r="K95" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>499</v>
+      </c>
+      <c r="B96">
+        <v>12</v>
+      </c>
+      <c r="C96">
+        <v>70</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G96" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96" t="s">
+        <v>511</v>
+      </c>
+      <c r="J96" t="s">
+        <v>1278</v>
+      </c>
+      <c r="K96" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>499</v>
+      </c>
+      <c r="B97">
+        <v>12</v>
+      </c>
+      <c r="C97">
+        <v>70</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F97" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G97" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97" t="s">
+        <v>690</v>
+      </c>
+      <c r="J97" t="s">
+        <v>1275</v>
+      </c>
+      <c r="K97" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>499</v>
+      </c>
+      <c r="B98">
+        <v>12</v>
+      </c>
+      <c r="C98">
+        <v>70</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F98" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G98" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H98">
+        <v>2</v>
+      </c>
+      <c r="I98" t="s">
+        <v>94</v>
+      </c>
+      <c r="J98" t="s">
+        <v>1277</v>
+      </c>
+      <c r="K98" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>499</v>
+      </c>
+      <c r="B99">
+        <v>12</v>
+      </c>
+      <c r="C99">
+        <v>70</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F99" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G99" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99" t="s">
+        <v>511</v>
+      </c>
+      <c r="J99" t="s">
+        <v>1278</v>
+      </c>
+      <c r="K99" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>499</v>
+      </c>
+      <c r="B100">
+        <v>12</v>
+      </c>
+      <c r="C100">
+        <v>70</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F100" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G100" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H100">
+        <v>2</v>
+      </c>
+      <c r="I100" t="s">
+        <v>690</v>
+      </c>
+      <c r="J100" t="s">
+        <v>1275</v>
+      </c>
+      <c r="K100" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>499</v>
+      </c>
+      <c r="B101">
+        <v>12</v>
+      </c>
+      <c r="C101">
+        <v>70</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F101" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G101" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H101">
+        <v>3</v>
+      </c>
+      <c r="I101" t="s">
+        <v>511</v>
+      </c>
+      <c r="J101" t="s">
+        <v>1279</v>
+      </c>
+      <c r="K101" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>499</v>
+      </c>
+      <c r="B102">
+        <v>12</v>
+      </c>
+      <c r="C102">
+        <v>70</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F102" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G102" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H102">
+        <v>6</v>
+      </c>
+      <c r="I102" t="s">
+        <v>511</v>
+      </c>
+      <c r="J102" t="s">
+        <v>1280</v>
+      </c>
+      <c r="K102" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>499</v>
+      </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>27</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F103" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G103" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J103" t="s">
+        <v>1083</v>
+      </c>
+      <c r="K103" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>499</v>
+      </c>
+      <c r="B104">
+        <v>5</v>
+      </c>
+      <c r="C104">
+        <v>27</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F104" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G104" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H104">
+        <v>2</v>
+      </c>
+      <c r="I104" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J104" t="s">
+        <v>1083</v>
+      </c>
+      <c r="K104" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>499</v>
+      </c>
+      <c r="B105">
+        <v>5</v>
+      </c>
+      <c r="C105">
+        <v>27</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F105" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G105" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H105">
+        <v>2</v>
+      </c>
+      <c r="I105" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J105" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K105" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B106">
+        <v>7</v>
+      </c>
+      <c r="C106">
+        <v>42</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F106" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G106" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H106">
+        <v>3</v>
+      </c>
+      <c r="I106" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J106" t="s">
+        <v>1181</v>
+      </c>
+      <c r="K106" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B107">
+        <v>7</v>
+      </c>
+      <c r="C107">
+        <v>42</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F107" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G107" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H107">
+        <v>3</v>
+      </c>
+      <c r="I107" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J107" t="s">
+        <v>1089</v>
+      </c>
+      <c r="K107" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B108">
+        <v>10</v>
+      </c>
+      <c r="C108">
+        <v>56</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F108" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G108" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H108">
+        <v>6</v>
+      </c>
+      <c r="I108" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J108" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K108" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B109">
+        <v>10</v>
+      </c>
+      <c r="C109">
+        <v>56</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F109" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G109" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H109">
+        <v>6</v>
+      </c>
+      <c r="I109" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J109" t="s">
+        <v>1089</v>
+      </c>
+      <c r="K109" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>499</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="C110">
+        <v>27</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F110" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G110" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110" t="s">
+        <v>94</v>
+      </c>
+      <c r="J110" t="s">
+        <v>1087</v>
+      </c>
+      <c r="K110" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B111">
+        <v>5</v>
+      </c>
+      <c r="C111">
+        <v>27</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F111" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G111" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111" t="s">
+        <v>94</v>
+      </c>
+      <c r="J111" t="s">
+        <v>1085</v>
+      </c>
+      <c r="K111" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>499</v>
+      </c>
+      <c r="B112">
+        <v>5</v>
+      </c>
+      <c r="C112">
+        <v>27</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F112" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G112" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112" t="s">
+        <v>690</v>
+      </c>
+      <c r="J112" t="s">
+        <v>1088</v>
+      </c>
+      <c r="K112" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>499</v>
+      </c>
+      <c r="B113">
+        <v>5</v>
+      </c>
+      <c r="C113">
+        <v>27</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F113" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G113" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H113">
+        <v>2</v>
+      </c>
+      <c r="I113" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J113" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K113" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>499</v>
+      </c>
+      <c r="B114">
+        <v>7</v>
+      </c>
+      <c r="C114">
+        <v>42</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F114" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G114" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H114">
+        <v>3</v>
+      </c>
+      <c r="I114" t="s">
+        <v>94</v>
+      </c>
+      <c r="J114" t="s">
+        <v>314</v>
+      </c>
+      <c r="K114" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>499</v>
+      </c>
+      <c r="B115">
+        <v>7</v>
+      </c>
+      <c r="C115">
+        <v>42</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F115" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G115" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H115">
+        <v>3</v>
+      </c>
+      <c r="I115" t="s">
+        <v>690</v>
+      </c>
+      <c r="J115" t="s">
+        <v>1191</v>
+      </c>
+      <c r="K115" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>499</v>
+      </c>
+      <c r="B116">
+        <v>10</v>
+      </c>
+      <c r="C116">
+        <v>56</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F116" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G116" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H116">
+        <v>6</v>
+      </c>
+      <c r="I116" t="s">
+        <v>94</v>
+      </c>
+      <c r="J116" t="s">
+        <v>1224</v>
+      </c>
+      <c r="K116" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>499</v>
+      </c>
+      <c r="B117">
+        <v>10</v>
+      </c>
+      <c r="C117">
+        <v>56</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F117" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G117" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H117">
+        <v>6</v>
+      </c>
+      <c r="I117" t="s">
+        <v>690</v>
+      </c>
+      <c r="J117" t="s">
+        <v>1225</v>
+      </c>
+      <c r="K117" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>499</v>
+      </c>
+      <c r="B118">
+        <v>5</v>
+      </c>
+      <c r="C118">
+        <v>27</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F118" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G118" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J118" t="s">
+        <v>1086</v>
+      </c>
+      <c r="K118" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>499</v>
+      </c>
+      <c r="B119">
+        <v>5</v>
+      </c>
+      <c r="C119">
+        <v>27</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F119" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G119" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H119">
+        <v>2</v>
+      </c>
+      <c r="I119" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J119" t="s">
+        <v>1086</v>
+      </c>
+      <c r="K119" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B120">
+        <v>7</v>
+      </c>
+      <c r="C120">
+        <v>42</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F120" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G120" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H120">
+        <v>3</v>
+      </c>
+      <c r="I120" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J120" t="s">
+        <v>1185</v>
+      </c>
+      <c r="K120" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B121">
+        <v>10</v>
+      </c>
+      <c r="C121">
+        <v>56</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F121" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G121" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H121">
+        <v>6</v>
+      </c>
+      <c r="I121" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J121" t="s">
+        <v>1223</v>
+      </c>
+      <c r="K121" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>499</v>
+      </c>
+      <c r="B122">
+        <v>5</v>
+      </c>
+      <c r="C122">
+        <v>27</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F122" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G122" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122" t="s">
+        <v>94</v>
+      </c>
+      <c r="J122" t="s">
+        <v>1089</v>
+      </c>
+      <c r="K122" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>499</v>
+      </c>
+      <c r="B123">
+        <v>5</v>
+      </c>
+      <c r="C123">
+        <v>27</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F123" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G123" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123" t="s">
+        <v>690</v>
+      </c>
+      <c r="J123" t="s">
+        <v>1090</v>
+      </c>
+      <c r="K123" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>499</v>
+      </c>
+      <c r="B124">
+        <v>5</v>
+      </c>
+      <c r="C124">
+        <v>27</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F124" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G124" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H124">
+        <v>2</v>
+      </c>
+      <c r="I124" t="s">
+        <v>94</v>
+      </c>
+      <c r="J124" t="s">
+        <v>1089</v>
+      </c>
+      <c r="K124" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>499</v>
+      </c>
+      <c r="B125">
+        <v>5</v>
+      </c>
+      <c r="C125">
+        <v>27</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F125" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G125" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H125">
+        <v>2</v>
+      </c>
+      <c r="I125" t="s">
+        <v>690</v>
+      </c>
+      <c r="J125" t="s">
+        <v>1090</v>
+      </c>
+      <c r="K125" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>499</v>
+      </c>
+      <c r="B126">
+        <v>7</v>
+      </c>
+      <c r="C126">
+        <v>42</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F126" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G126" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H126">
+        <v>3</v>
+      </c>
+      <c r="I126" t="s">
+        <v>94</v>
+      </c>
+      <c r="J126" t="s">
+        <v>1186</v>
+      </c>
+      <c r="K126" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>499</v>
+      </c>
+      <c r="B127">
+        <v>7</v>
+      </c>
+      <c r="C127">
+        <v>42</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F127" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G127" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H127">
+        <v>3</v>
+      </c>
+      <c r="I127" t="s">
+        <v>690</v>
+      </c>
+      <c r="J127" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K127" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>499</v>
+      </c>
+      <c r="B128">
+        <v>10</v>
+      </c>
+      <c r="C128">
+        <v>56</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F128" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G128" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H128">
+        <v>6</v>
+      </c>
+      <c r="I128" t="s">
+        <v>94</v>
+      </c>
+      <c r="J128" t="s">
+        <v>1235</v>
+      </c>
+      <c r="K128" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>499</v>
+      </c>
+      <c r="B129">
+        <v>10</v>
+      </c>
+      <c r="C129">
+        <v>56</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F129" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G129" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H129">
+        <v>6</v>
+      </c>
+      <c r="I129" t="s">
+        <v>690</v>
+      </c>
+      <c r="J129" t="s">
+        <v>1236</v>
+      </c>
+      <c r="K129" t="s">
+        <v>1238</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69360A60-59EE-0441-BA88-89364E1282A8}">
   <dimension ref="A1:E28"/>
   <sheetViews>
@@ -14851,7 +20305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942D2CA4-63A6-ED48-9FE6-C697C2E3C617}">
   <dimension ref="A1:E52"/>
   <sheetViews>
